--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2752.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2752.xlsx
@@ -354,7 +354,7 @@
         <v>2.420823244622746</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.366390793129922</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2752.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2752.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160520860836397</v>
+        <v>1.713998556137085</v>
       </c>
       <c r="B1">
-        <v>2.420823244622746</v>
+        <v>2.267333984375</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.440818309783936</v>
       </c>
       <c r="D1">
-        <v>2.366390793129922</v>
+        <v>3.147013425827026</v>
       </c>
       <c r="E1">
-        <v>1.222488434218308</v>
+        <v>1.808821558952332</v>
       </c>
     </row>
   </sheetData>
